--- a/biology/Histoire de la zoologie et de la botanique/Donald_George_Broadley/Donald_George_Broadley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Donald_George_Broadley/Donald_George_Broadley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Donald George Broadley est un herpétologiste britannique né le 29 mai 1932 et mort le 10 mars 2016. 
 Il a travaillé pour le Natural History Museum of Zimbabwe à Bulawayo, Zimbabwe et dans le cadre de la Biodiversity Foundation for Africa.
@@ -513,7 +525,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nothophryne broadleyi Poynton, 1963
 Ptychadena broadleyi Stevens, 1972
@@ -551,7 +565,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Afrotyphlops nanus Broadley &amp; Wallach, 2009
